--- a/PythonResources/Data/Consumption/Sympheny/base_1380_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1380_coo.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>146.0372985649484</v>
+        <v>146.0372985649483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>252.0114930738522</v>
+        <v>252.0114930738521</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>7.987065016637644</v>
+        <v>7.987065016637643</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>35.29132140456054</v>
+        <v>35.29132140456053</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>31.9966167879297</v>
+        <v>31.99661678792969</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>2.737816890387329</v>
+        <v>2.737816890387328</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>45.6680876704428</v>
+        <v>45.66808767044279</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>3.693398457625738</v>
+        <v>3.693398457625737</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>151.0406073369749</v>
+        <v>151.0406073369748</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>153.2893414166234</v>
+        <v>153.2893414166233</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>0.4281064504349468</v>
+        <v>0.4281064504349467</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>99.4577599642688</v>
+        <v>99.45775996426876</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>300.8637975793505</v>
+        <v>300.8637975793504</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>137.7284415478606</v>
+        <v>137.7284415478605</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>60.69677053299658</v>
+        <v>60.69677053299657</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>21.60088882584606</v>
+        <v>21.60088882584605</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>68.83740477389277</v>
+        <v>68.83740477389276</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>0.873002940674802</v>
+        <v>0.8730029406748019</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>106.7015968268613</v>
+        <v>106.7015968268612</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>1.722900160661544</v>
+        <v>1.722900160661543</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>41.49006694328666</v>
+        <v>41.49006694328665</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>54.02705983514169</v>
+        <v>54.02705983514168</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>54.97221393482453</v>
+        <v>54.97221393482452</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>12.22457916464204</v>
+        <v>12.22457916464203</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>62.15655737656874</v>
+        <v>62.15655737656873</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>0.8032461720526286</v>
+        <v>0.8032461720526285</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>18.54644384670978</v>
+        <v>18.54644384670977</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>5.454608864461093</v>
+        <v>5.454608864461092</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>70.86809400077723</v>
+        <v>70.86809400077722</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>83.43322171234375</v>
+        <v>83.43322171234374</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>47.87960172818131</v>
+        <v>47.8796017281813</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>11.13781313907804</v>
+        <v>11.13781313907803</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>60.52591011745702</v>
+        <v>60.52591011745701</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>77.07211481819925</v>
+        <v>77.07211481819924</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>49.45368627683139</v>
+        <v>49.45368627683138</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>0.4038020691987614</v>
+        <v>0.4038020691987613</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>57.5858214576064</v>
+        <v>57.58582145760639</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>55.15831404437448</v>
+        <v>55.15831404437447</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>72.72264753342623</v>
+        <v>72.72264753342621</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>74.23606637707341</v>
+        <v>74.2360663770734</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>0.2137170727361288</v>
+        <v>0.2137170727361287</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>2.673651917182814</v>
+        <v>2.673651917182813</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>72.13181631948495</v>
+        <v>72.13181631948494</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="B1000">
-        <v>118.3798915754386</v>
+        <v>118.3798915754385</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>18.94346718278431</v>
+        <v>18.9434671827843</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>80.51892330389533</v>
+        <v>80.51892330389532</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>67.9107141496456</v>
+        <v>67.91071414964559</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>96.54141005854974</v>
+        <v>96.54141005854972</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>0.221619733293632</v>
+        <v>0.2216197332936319</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>3.405954382906691</v>
+        <v>3.40595438290669</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>3.41884950860779</v>
+        <v>3.418849508607789</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>55.50970621972943</v>
+        <v>55.50970621972942</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>6.164338998787272</v>
+        <v>6.164338998787271</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>2.044768359581753</v>
+        <v>2.044768359581752</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>0.5885042298943011</v>
+        <v>0.588504229894301</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10711,7 +10711,7 @@
         <v>1296</v>
       </c>
       <c r="B1296">
-        <v>8.005088885515317</v>
+        <v>8.005088885515315</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>87.01572208894004</v>
+        <v>87.01572208894002</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -11047,7 +11047,7 @@
         <v>1338</v>
       </c>
       <c r="B1338">
-        <v>126.1351374004951</v>
+        <v>126.135137400495</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>154.2218934616438</v>
+        <v>154.2218934616437</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>78.89296518140219</v>
+        <v>78.89296518140218</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11551,7 +11551,7 @@
         <v>1401</v>
       </c>
       <c r="B1401">
-        <v>50.81412203829736</v>
+        <v>50.81412203829735</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>70.64887686385855</v>
+        <v>70.64887686385853</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>89.66449813636127</v>
+        <v>89.66449813636126</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>25.32828352395651</v>
+        <v>25.3282835239565</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>10.59730222247492</v>
+        <v>10.59730222247491</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>4.614901724488607</v>
+        <v>4.614901724488606</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>172.1147595850349</v>
+        <v>172.1147595850348</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>92.51842391084546</v>
+        <v>92.51842391084544</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>88.70410434266805</v>
+        <v>88.70410434266803</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>0.379884541733609</v>
+        <v>0.3798845417336089</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>67.68622173403101</v>
+        <v>67.68622173403099</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>76.87546415125749</v>
+        <v>76.87546415125748</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>52.73022048906523</v>
+        <v>52.73022048906522</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>2.56062614041268</v>
+        <v>2.560626140412679</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>177.159098302474</v>
+        <v>177.1590983024739</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15071,7 +15071,7 @@
         <v>1841</v>
       </c>
       <c r="B1841">
-        <v>176.1907915907369</v>
+        <v>176.1907915907368</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>6.709421823593509</v>
+        <v>6.709421823593508</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>9.297385630492521</v>
+        <v>9.297385630492515</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>142.9105236534705</v>
+        <v>142.9105236534704</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>97.555435852318</v>
+        <v>97.55543585231798</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>0.1587949739489154</v>
+        <v>0.1587949739489153</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>7.472989107721778</v>
+        <v>7.472989107721777</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>4.87060620572063</v>
+        <v>4.870606205720629</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>0.7168136613306246</v>
+        <v>0.7168136613306245</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>0.5863941184159394</v>
+        <v>0.5863941184159392</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>4.866913510633497</v>
+        <v>4.866913510633496</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>40.54461977256516</v>
+        <v>40.54461977256515</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17215,7 +17215,7 @@
         <v>2109</v>
       </c>
       <c r="B2109">
-        <v>76.69258782313281</v>
+        <v>76.6925878231328</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>77.17879267627198</v>
+        <v>77.17879267627197</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>8.861647610210831</v>
+        <v>8.861647610210829</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>5.799875855108024</v>
+        <v>5.799875855108023</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>164.4966710060719</v>
+        <v>164.4966710060718</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>89.21668558928674</v>
+        <v>89.21668558928673</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17919,7 +17919,7 @@
         <v>2197</v>
       </c>
       <c r="B2197">
-        <v>180.4886783727055</v>
+        <v>180.4886783727054</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>213.2968088666885</v>
+        <v>213.2968088666884</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>38.7284585459808</v>
+        <v>38.72845854598079</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>191.422572683083</v>
+        <v>191.4225726830829</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>0.9863774719809434</v>
+        <v>0.9863774719809432</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>265.0414314527356</v>
+        <v>265.0414314527355</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>334.8893451679327</v>
+        <v>334.8893451679326</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>210.8408735627064</v>
+        <v>210.8408735627063</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>164.0183790709766</v>
+        <v>164.0183790709765</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>136.605686398749</v>
+        <v>136.6056863987489</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>124.0349903374479</v>
+        <v>124.0349903374478</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>38.70003065523065</v>
+        <v>38.70003065523064</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>169.7986191664943</v>
+        <v>169.7986191664942</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>187.1783179011894</v>
+        <v>187.1783179011893</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19111,7 +19111,7 @@
         <v>2346</v>
       </c>
       <c r="B2346">
-        <v>211.4076729514775</v>
+        <v>211.4076729514774</v>
       </c>
     </row>
     <row r="2347" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>7.114533920335086</v>
+        <v>7.114533920335085</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>45.71908203116987</v>
+        <v>45.71908203116986</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>48.8804393252098</v>
+        <v>48.88043932520979</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>72.1496936528433</v>
+        <v>72.14969365284328</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>115.4145988062631</v>
+        <v>115.414598806263</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>59.26511850913591</v>
+        <v>59.2651185091359</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>216.5707054395744</v>
+        <v>216.5707054395743</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>77.60403875336959</v>
+        <v>77.60403875336958</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>52.99017450035785</v>
+        <v>52.99017450035784</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -19935,7 +19935,7 @@
         <v>2449</v>
       </c>
       <c r="B2449">
-        <v>41.17677400295768</v>
+        <v>41.17677400295767</v>
       </c>
     </row>
     <row r="2450" spans="1:2">
@@ -19959,7 +19959,7 @@
         <v>2452</v>
       </c>
       <c r="B2452">
-        <v>6.86263936260566</v>
+        <v>6.862639362605659</v>
       </c>
     </row>
     <row r="2453" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>99.81208285001036</v>
+        <v>99.81208285001034</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20095,7 +20095,7 @@
         <v>2469</v>
       </c>
       <c r="B2469">
-        <v>48.56480181657153</v>
+        <v>48.56480181657152</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>22.15880816214566</v>
+        <v>22.15880816214565</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20207,7 +20207,7 @@
         <v>2483</v>
       </c>
       <c r="B2483">
-        <v>116.6882855402853</v>
+        <v>116.6882855402852</v>
       </c>
     </row>
     <row r="2484" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>191.642375962079</v>
+        <v>191.6423759620789</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>252.4405490744524</v>
+        <v>252.4405490744523</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>1.178664311157039</v>
+        <v>1.178664311157038</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20871,7 +20871,7 @@
         <v>2566</v>
       </c>
       <c r="B2566">
-        <v>3.29019132263546</v>
+        <v>3.290191322635459</v>
       </c>
     </row>
     <row r="2567" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>29.52544178993724</v>
+        <v>29.52544178993723</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>53.28031482863258</v>
+        <v>53.28031482863257</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>89.21932322863469</v>
+        <v>89.21932322863468</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21327,7 +21327,7 @@
         <v>2623</v>
       </c>
       <c r="B2623">
-        <v>16.69174377854146</v>
+        <v>16.69174377854145</v>
       </c>
     </row>
     <row r="2624" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>4.334989575463156</v>
+        <v>4.334989575463155</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>5.454433021837896</v>
+        <v>5.454433021837895</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>66.03564564429031</v>
+        <v>66.0356456442903</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>20.76560705855736</v>
+        <v>20.76560705855735</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>6.861408464243282</v>
+        <v>6.861408464243281</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>4.869668378396914</v>
+        <v>4.869668378396913</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>4.773453156404394</v>
+        <v>4.773453156404393</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>2.358978612261741</v>
+        <v>2.35897861226174</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22199,7 +22199,7 @@
         <v>2732</v>
       </c>
       <c r="B2732">
-        <v>104.8789880374264</v>
+        <v>104.8789880374263</v>
       </c>
     </row>
     <row r="2733" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>59.80231772300216</v>
+        <v>59.80231772300215</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>6.058247282791865</v>
+        <v>6.058247282791864</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>40.04786436203418</v>
+        <v>40.04786436203417</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22535,7 +22535,7 @@
         <v>2774</v>
       </c>
       <c r="B2774">
-        <v>250.4966088750117</v>
+        <v>250.4966088750116</v>
       </c>
     </row>
     <row r="2775" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>47.28056452515752</v>
+        <v>47.28056452515751</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22615,7 +22615,7 @@
         <v>2784</v>
       </c>
       <c r="B2784">
-        <v>0.7225402694260673</v>
+        <v>0.7225402694260672</v>
       </c>
     </row>
     <row r="2785" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>56.68931715034135</v>
+        <v>56.68931715034134</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22847,7 +22847,7 @@
         <v>2813</v>
       </c>
       <c r="B2813">
-        <v>3.75040077464537</v>
+        <v>3.750400774645369</v>
       </c>
     </row>
     <row r="2814" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>7.075321015362198</v>
+        <v>7.075321015362197</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>35.4774215141105</v>
+        <v>35.47742151411049</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>288.2128000534562</v>
+        <v>288.2128000534561</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>126.1351374004951</v>
+        <v>126.135137400495</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>262.3416610445873</v>
+        <v>262.3416610445872</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>127.334677161736</v>
+        <v>127.3346771617359</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23719,7 +23719,7 @@
         <v>2922</v>
       </c>
       <c r="B2922">
-        <v>314.2600747565606</v>
+        <v>314.2600747565605</v>
       </c>
     </row>
     <row r="2923" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>150.6106721232587</v>
+        <v>150.6106721232586</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>201.0877624670955</v>
+        <v>201.0877624670954</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>63.22128446002541</v>
+        <v>63.2212844600254</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>4.325435459602796</v>
+        <v>4.325435459602795</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>3.335822483355031</v>
+        <v>3.33582248335503</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24287,7 +24287,7 @@
         <v>2993</v>
       </c>
       <c r="B2993">
-        <v>321.8359611059564</v>
+        <v>321.8359611059563</v>
       </c>
     </row>
     <row r="2994" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>274.0850175637474</v>
+        <v>274.0850175637473</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>80.77389510753071</v>
+        <v>80.77389510753069</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24807,7 +24807,7 @@
         <v>3058</v>
       </c>
       <c r="B3058">
-        <v>313.4482679794687</v>
+        <v>313.4482679794686</v>
       </c>
     </row>
     <row r="3059" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>95.05524682149806</v>
+        <v>95.05524682149805</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>45.11770025983679</v>
+        <v>45.11770025983678</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>58.87035182005908</v>
+        <v>58.87035182005907</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>54.41948195590923</v>
+        <v>54.41948195590922</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>66.98548888059173</v>
+        <v>66.98548888059172</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>80.08312666940591</v>
+        <v>80.0831266694059</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25119,7 +25119,7 @@
         <v>3097</v>
       </c>
       <c r="B3097">
-        <v>56.56417581683295</v>
+        <v>56.56417581683294</v>
       </c>
     </row>
     <row r="3098" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>288.3508365126657</v>
+        <v>288.3508365126656</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>303.498506216916</v>
+        <v>303.4985062169159</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>326.7917923697197</v>
+        <v>326.7917923697196</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>47.35471149793884</v>
+        <v>47.35471149793883</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25727,7 +25727,7 @@
         <v>3173</v>
       </c>
       <c r="B3173">
-        <v>159.1780177964458</v>
+        <v>159.1780177964457</v>
       </c>
     </row>
     <row r="3174" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>417.2979905291164</v>
+        <v>417.2979905291163</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>436.6025798457392</v>
+        <v>436.6025798457391</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>358.3555432335466</v>
+        <v>358.3555432335465</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25815,7 +25815,7 @@
         <v>3184</v>
       </c>
       <c r="B3184">
-        <v>343.1949784035952</v>
+        <v>343.1949784035951</v>
       </c>
     </row>
     <row r="3185" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>75.55078305650821</v>
+        <v>75.55078305650819</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>5.444820291769804</v>
+        <v>5.444820291769803</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>2.585074126457809</v>
+        <v>2.585074126457808</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>130.695029691027</v>
+        <v>130.6950296910269</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>391.7861566136463</v>
+        <v>391.7861566136462</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>299.2929368121257</v>
+        <v>299.2929368121256</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>269.2941852947504</v>
+        <v>269.2941852947503</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26623,7 +26623,7 @@
         <v>3285</v>
       </c>
       <c r="B3285">
-        <v>254.4990800500097</v>
+        <v>254.4990800500096</v>
       </c>
     </row>
     <row r="3286" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>43.59431700087512</v>
+        <v>43.59431700087511</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>13.85200264232849</v>
+        <v>13.85200264232848</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>4.504765628159673</v>
+        <v>4.504765628159672</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>62.16681486292189</v>
+        <v>62.16681486292188</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>84.68697961573699</v>
+        <v>84.68697961573697</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>152.1255563220992</v>
+        <v>152.1255563220991</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>182.4033114682801</v>
+        <v>182.40331146828</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>45.62969536437816</v>
+        <v>45.62969536437815</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>278.2199568482203</v>
+        <v>278.2199568482202</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>143.6939025398123</v>
+        <v>143.6939025398122</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>231.4042029903797</v>
+        <v>231.4042029903796</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>366.8692569066587</v>
+        <v>366.8692569066586</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>326.7624852658536</v>
+        <v>326.7624852658535</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>352.4091318591079</v>
+        <v>352.4091318591078</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>389.9691161739459</v>
+        <v>389.9691161739458</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>195.3295026994774</v>
+        <v>195.3295026994773</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>325.4524577230374</v>
+        <v>325.4524577230373</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28207,7 +28207,7 @@
         <v>3483</v>
       </c>
       <c r="B3483">
-        <v>55.45372965134512</v>
+        <v>55.45372965134511</v>
       </c>
     </row>
     <row r="3484" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>52.15169825874774</v>
+        <v>52.15169825874773</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>456.0419818401462</v>
+        <v>456.0419818401461</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>452.5075451138904</v>
+        <v>452.5075451138903</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>241.0186914847038</v>
+        <v>241.0186914847037</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>391.249836612896</v>
+        <v>391.2498366128959</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>89.72604305448016</v>
+        <v>89.72604305448014</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>397.6270624141669</v>
+        <v>397.6270624141668</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>445.4210873990591</v>
+        <v>445.421087399059</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>376.0160040232793</v>
+        <v>376.0160040232792</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>321.9766352045138</v>
+        <v>321.9766352045137</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>299.6651370312256</v>
+        <v>299.6651370312255</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>461.2000321205859</v>
+        <v>461.2000321205858</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>484.3966048306314</v>
+        <v>484.3966048306313</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>522.3786114411417</v>
+        <v>522.3786114411416</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>370.5297141795389</v>
+        <v>370.5297141795388</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>322.3869346586397</v>
+        <v>322.3869346586396</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29559,7 +29559,7 @@
         <v>3652</v>
       </c>
       <c r="B3652">
-        <v>63.02521993516097</v>
+        <v>63.02521993516096</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>49.42613759919723</v>
+        <v>49.42613759919722</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>52.78092177875365</v>
+        <v>52.78092177875364</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29879,7 +29879,7 @@
         <v>3692</v>
       </c>
       <c r="B3692">
-        <v>186.4192639110565</v>
+        <v>186.4192639110564</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -29903,7 +29903,7 @@
         <v>3695</v>
       </c>
       <c r="B3695">
-        <v>53.74659085114278</v>
+        <v>53.74659085114277</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>134.9035298062039</v>
+        <v>134.9035298062038</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>297.9389486135103</v>
+        <v>297.9389486135102</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30111,7 +30111,7 @@
         <v>3721</v>
       </c>
       <c r="B3721">
-        <v>91.71833997529998</v>
+        <v>91.71833997529995</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -30119,7 +30119,7 @@
         <v>3722</v>
       </c>
       <c r="B3722">
-        <v>70.01965334385264</v>
+        <v>70.01965334385262</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>294.7679199751945</v>
+        <v>294.7679199751944</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>320.1683868959733</v>
+        <v>320.1683868959732</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>179.9840100441307</v>
+        <v>179.9840100441306</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>481.9846301824485</v>
+        <v>481.9846301824484</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>497.3825825537156</v>
+        <v>497.3825825537155</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>458.4539564883291</v>
+        <v>458.453956488329</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30695,7 +30695,7 @@
         <v>3794</v>
       </c>
       <c r="B3794">
-        <v>201.0276829041699</v>
+        <v>201.0276829041698</v>
       </c>
     </row>
     <row r="3795" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>204.8513807455845</v>
+        <v>204.8513807455844</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -31087,7 +31087,7 @@
         <v>3843</v>
       </c>
       <c r="B3843">
-        <v>3.907692001094914</v>
+        <v>3.907692001094913</v>
       </c>
     </row>
     <row r="3844" spans="1:2">
@@ -31111,7 +31111,7 @@
         <v>3846</v>
       </c>
       <c r="B3846">
-        <v>40.59561413329223</v>
+        <v>40.59561413329222</v>
       </c>
     </row>
     <row r="3847" spans="1:2">
@@ -31271,7 +31271,7 @@
         <v>3866</v>
       </c>
       <c r="B3866">
-        <v>56.5873284288872</v>
+        <v>56.58732842888719</v>
       </c>
     </row>
     <row r="3867" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>38.63408967153185</v>
+        <v>38.63408967153184</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>47.11761702766181</v>
+        <v>47.1176170276618</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>82.44234853062974</v>
+        <v>82.44234853062973</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>98.60199253137766</v>
+        <v>98.60199253137765</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>429.0853077040757</v>
+        <v>429.0853077040756</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31663,7 +31663,7 @@
         <v>3915</v>
       </c>
       <c r="B3915">
-        <v>152.9792722577197</v>
+        <v>152.9792722577196</v>
       </c>
     </row>
     <row r="3916" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>481.5919149906423</v>
+        <v>481.5919149906422</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>466.5954699423413</v>
+        <v>466.5954699423412</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>234.1291775078529</v>
+        <v>234.1291775078528</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>475.8828911575193</v>
+        <v>475.8828911575192</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>503.1590127257307</v>
+        <v>503.1590127257306</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>606.6687728705313</v>
+        <v>606.6687728705311</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>587.6308781990903</v>
+        <v>587.6308781990901</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>249.9854929835863</v>
+        <v>249.9854929835862</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>621.4483453502229</v>
+        <v>621.4483453502228</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>463.8112950750585</v>
+        <v>463.8112950750584</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>544.5113362808465</v>
+        <v>544.5113362808464</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>408.8956438506956</v>
+        <v>408.8956438506955</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>332.7382037441584</v>
+        <v>332.7382037441583</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>401.6011056984147</v>
+        <v>401.6011056984146</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>274.7400313351555</v>
+        <v>274.7400313351554</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>548.1131793459945</v>
+        <v>548.1131793459944</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>380.7637548495931</v>
+        <v>380.763754849593</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>332.7382037441584</v>
+        <v>332.7382037441583</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>476.9027783720608</v>
+        <v>476.9027783720607</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>412.0285732539854</v>
+        <v>412.0285732539853</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>316.3291562895097</v>
+        <v>316.3291562895096</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>465.619543383599</v>
+        <v>465.6195433835989</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>534.538128835201</v>
+        <v>534.5381288352008</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>213.1118810412932</v>
+        <v>213.1118810412931</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>406.2755887650632</v>
+        <v>406.2755887650631</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>412.251307243368</v>
+        <v>412.2513072433679</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33535,7 +33535,7 @@
         <v>4149</v>
       </c>
       <c r="B4149">
-        <v>346.3953141457771</v>
+        <v>346.395314145777</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33551,7 +33551,7 @@
         <v>4151</v>
       </c>
       <c r="B4151">
-        <v>238.2778911311429</v>
+        <v>238.2778911311428</v>
       </c>
     </row>
     <row r="4152" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>464.3622686277418</v>
+        <v>464.3622686277417</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33863,7 +33863,7 @@
         <v>4190</v>
       </c>
       <c r="B4190">
-        <v>535.1037559398173</v>
+        <v>535.1037559398172</v>
       </c>
     </row>
     <row r="4191" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>459.5178043586698</v>
+        <v>459.5178043586697</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>439.7648163528951</v>
+        <v>439.764816352895</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>449.2104959289503</v>
+        <v>449.2104959289502</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>400.8127446044157</v>
+        <v>400.8127446044156</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>439.8703219268132</v>
+        <v>439.8703219268131</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>307.2410233806214</v>
+        <v>307.2410233806213</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>321.5165136738155</v>
+        <v>321.5165136738154</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>393.2075511511538</v>
+        <v>393.2075511511537</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>227.3733039246316</v>
+        <v>227.3733039246315</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>369.4365592053321</v>
+        <v>369.436559205332</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>439.0057623627622</v>
+        <v>439.0057623627621</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>471.5073405503054</v>
+        <v>471.5073405503053</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34855,7 +34855,7 @@
         <v>4314</v>
       </c>
       <c r="B4314">
-        <v>377.3025858830026</v>
+        <v>377.3025858830025</v>
       </c>
     </row>
     <row r="4315" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>261.31210248577</v>
+        <v>261.3121024857699</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -34895,7 +34895,7 @@
         <v>4319</v>
       </c>
       <c r="B4319">
-        <v>192.4782145643412</v>
+        <v>192.4782145643411</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>478.9044535661178</v>
+        <v>478.9044535661177</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>450.6465440183909</v>
+        <v>450.6465440183908</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>341.9523571996711</v>
+        <v>341.952357199671</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35247,7 +35247,7 @@
         <v>4363</v>
       </c>
       <c r="B4363">
-        <v>401.4164709440581</v>
+        <v>401.416470944058</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
@@ -35295,7 +35295,7 @@
         <v>4369</v>
       </c>
       <c r="B4369">
-        <v>250.1918149948039</v>
+        <v>250.1918149948038</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>300.0080301464594</v>
+        <v>300.0080301464593</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>588.7181717525239</v>
+        <v>588.7181717525237</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>474.945063833803</v>
+        <v>474.9450638338029</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>404.8541942275557</v>
+        <v>404.8541942275556</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>519.7439028035762</v>
+        <v>519.7439028035761</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>487.7757139063967</v>
+        <v>487.7757139063966</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>195.0276395296562</v>
+        <v>195.0276395296561</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>297.2238552791766</v>
+        <v>297.2238552791765</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>308.4396839287463</v>
+        <v>308.4396839287462</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36063,7 +36063,7 @@
         <v>4465</v>
       </c>
       <c r="B4465">
-        <v>228.5382613033104</v>
+        <v>228.5382613033103</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>476.8793326889679</v>
+        <v>476.8793326889678</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>474.7516369482865</v>
+        <v>474.7516369482864</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>543.6028160609964</v>
+        <v>543.6028160609962</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36247,7 +36247,7 @@
         <v>4488</v>
       </c>
       <c r="B4488">
-        <v>292.1493302447554</v>
+        <v>292.1493302447553</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>346.714761577918</v>
+        <v>346.7147615779179</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>586.9919833348085</v>
+        <v>586.9919833348084</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>512.8362184223283</v>
+        <v>512.8362184223282</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>461.1912399894261</v>
+        <v>461.191239989426</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>413.9481885572172</v>
+        <v>413.9481885572171</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>393.0580849214365</v>
+        <v>393.0580849214364</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>466.5866778111814</v>
+        <v>466.5866778111813</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36591,7 +36591,7 @@
         <v>4531</v>
       </c>
       <c r="B4531">
-        <v>478.4355399042596</v>
+        <v>478.4355399042595</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>394.7256591314196</v>
+        <v>394.7256591314195</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>293.9121525423034</v>
+        <v>293.9121525423033</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>451.0480513413569</v>
+        <v>451.0480513413568</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>460.001371572461</v>
+        <v>460.0013715724609</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>513.1204973298298</v>
+        <v>513.1204973298297</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37215,7 +37215,7 @@
         <v>4609</v>
       </c>
       <c r="B4609">
-        <v>185.3176098767285</v>
+        <v>185.3176098767284</v>
       </c>
     </row>
     <row r="4610" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>435.8581794075394</v>
+        <v>435.8581794075393</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>378.2785124417449</v>
+        <v>378.2785124417448</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>431.4591831172326</v>
+        <v>431.4591831172325</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>500.9785641980903</v>
+        <v>500.9785641980902</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37743,7 +37743,7 @@
         <v>4675</v>
       </c>
       <c r="B4675">
-        <v>450.5498305756326</v>
+        <v>450.5498305756325</v>
       </c>
     </row>
     <row r="4676" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>447.3934554892499</v>
+        <v>447.3934554892498</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>92.43636402002028</v>
+        <v>92.43636402002026</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>288.2339011682398</v>
+        <v>288.2339011682397</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>525.6229078391228</v>
+        <v>525.6229078391227</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>308.8792904867383</v>
+        <v>308.8792904867382</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>555.8678390289737</v>
+        <v>555.8678390289735</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>514.8759928514113</v>
+        <v>514.8759928514112</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>539.7489319025997</v>
+        <v>539.7489319025996</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>549.4818210965429</v>
+        <v>549.4818210965428</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>497.8368426636407</v>
+        <v>497.8368426636406</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>528.972709811022</v>
+        <v>528.9727098110219</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>639.7858002392633</v>
+        <v>639.7858002392632</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>563.0275645034703</v>
+        <v>563.0275645034702</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>508.2350031153452</v>
+        <v>508.2350031153451</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>447.1414143960012</v>
+        <v>447.1414143960011</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>501.9310450737397</v>
+        <v>501.9310450737396</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>497.3767211329424</v>
+        <v>497.3767211329423</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39303,7 +39303,7 @@
         <v>4870</v>
       </c>
       <c r="B4870">
-        <v>380.1600285099507</v>
+        <v>380.1600285099506</v>
       </c>
     </row>
     <row r="4871" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>590.1923190769904</v>
+        <v>590.1923190769903</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>486.5330927024726</v>
+        <v>486.5330927024725</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>248.259304565871</v>
+        <v>248.2593045658709</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>445.444533082152</v>
+        <v>445.4445330821519</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>460.9157532130844</v>
+        <v>460.9157532130843</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>490.6331565333448</v>
+        <v>490.6331565333447</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>347.3771021252926</v>
+        <v>347.3771021252925</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39919,7 +39919,7 @@
         <v>4947</v>
       </c>
       <c r="B4947">
-        <v>251.5393556305688</v>
+        <v>251.5393556305687</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>272.5499114632393</v>
+        <v>272.5499114632392</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>464.7110231637488</v>
+        <v>464.7110231637487</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>312.8826408748523</v>
+        <v>312.8826408748522</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>279.0610707291784</v>
+        <v>279.0610707291783</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>382.5720031581336</v>
+        <v>382.5720031581335</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>348.7252289031348</v>
+        <v>348.7252289031347</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>170.5166432112146</v>
+        <v>170.5166432112145</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>188.2559401103472</v>
+        <v>188.2559401103471</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40527,7 +40527,7 @@
         <v>5023</v>
       </c>
       <c r="B5023">
-        <v>247.5957917343417</v>
+        <v>247.5957917343416</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>292.8735087812876</v>
+        <v>292.8735087812875</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40615,7 +40615,7 @@
         <v>5034</v>
       </c>
       <c r="B5034">
-        <v>302.1064187832746</v>
+        <v>302.1064187832745</v>
       </c>
     </row>
     <row r="5035" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>150.4802555110544</v>
+        <v>150.4802555110543</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>323.6442094144969</v>
+        <v>323.6442094144968</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>243.4705237941446</v>
+        <v>243.4705237941445</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>451.9858786650732</v>
+        <v>451.9858786650731</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>452.0005322170063</v>
+        <v>452.0005322170062</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>394.4941330108771</v>
+        <v>394.494133010877</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41231,7 +41231,7 @@
         <v>5111</v>
       </c>
       <c r="B5111">
-        <v>308.3957232729471</v>
+        <v>308.395723272947</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>269.1130673928577</v>
+        <v>269.1130673928576</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>361.9046335117355</v>
+        <v>361.9046335117354</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>412.7055673532931</v>
+        <v>412.705567353293</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>416.2106969756828</v>
+        <v>416.2106969756827</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>232.1831858111416</v>
+        <v>232.1831858111415</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>542.1902136546487</v>
+        <v>542.1902136546486</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41999,7 +41999,7 @@
         <v>5207</v>
       </c>
       <c r="B5207">
-        <v>98.16883353623621</v>
+        <v>98.16883353623618</v>
       </c>
     </row>
     <row r="5208" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>71.12834108310851</v>
+        <v>71.1283410831085</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>56.53926477854674</v>
+        <v>56.53926477854673</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>359.3373312130621</v>
+        <v>359.337331213062</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>51.56584925246371</v>
+        <v>51.5658492524637</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>339.44366910873</v>
+        <v>339.4436691087299</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>464.2655551849836</v>
+        <v>464.2655551849835</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>393.7497325726773</v>
+        <v>393.7497325726772</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>458.2077768158536</v>
+        <v>458.2077768158535</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42927,7 +42927,7 @@
         <v>5323</v>
       </c>
       <c r="B5323">
-        <v>414.2764281205179</v>
+        <v>414.2764281205178</v>
       </c>
     </row>
     <row r="5324" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>332.4334098639506</v>
+        <v>332.4334098639505</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>303.3197328833326</v>
+        <v>303.3197328833325</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43143,7 +43143,7 @@
         <v>5350</v>
       </c>
       <c r="B5350">
-        <v>313.7384083077434</v>
+        <v>313.7384083077433</v>
       </c>
     </row>
     <row r="5351" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>298.0356620562685</v>
+        <v>298.0356620562684</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>478.5850061339769</v>
+        <v>478.5850061339768</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>440.3538891406044</v>
+        <v>440.3538891406043</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>356.7172761274297</v>
+        <v>356.7172761274296</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>474.8190432871786</v>
+        <v>474.8190432871785</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>490.8265834188613</v>
+        <v>490.8265834188612</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43495,7 +43495,7 @@
         <v>5394</v>
       </c>
       <c r="B5394">
-        <v>464.2948622888497</v>
+        <v>464.2948622888496</v>
       </c>
     </row>
     <row r="5395" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>457.2699494921373</v>
+        <v>457.2699494921372</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>455.5291075224889</v>
+        <v>455.5291075224888</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>603.7966766916501</v>
+        <v>603.79667669165</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>300.6029643549419</v>
+        <v>300.6029643549418</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>224.1961207945039</v>
+        <v>224.1961207945038</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>169.2520416793909</v>
+        <v>169.2520416793908</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>252.7538420147814</v>
+        <v>252.7538420147813</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>441.7078773392198</v>
+        <v>441.7078773392197</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>418.7633457224231</v>
+        <v>418.763345722423</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>420.0059669263472</v>
+        <v>420.0059669263471</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44287,7 +44287,7 @@
         <v>5493</v>
       </c>
       <c r="B5493">
-        <v>411.8937605762012</v>
+        <v>411.8937605762011</v>
       </c>
     </row>
     <row r="5494" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>281.818576131943</v>
+        <v>281.8185761319429</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>370.1428604085059</v>
+        <v>370.1428604085058</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>423.2737090074212</v>
+        <v>423.2737090074211</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>483.4587775069151</v>
+        <v>483.458777506915</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>537.457116380268</v>
+        <v>537.4571163802678</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>527.2611749452398</v>
+        <v>527.2611749452396</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>525.6375613910559</v>
+        <v>525.6375613910558</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>383.2783043613074</v>
+        <v>383.2783043613073</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>39.268295399195</v>
+        <v>39.26829539919499</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45471,7 +45471,7 @@
         <v>5641</v>
       </c>
       <c r="B5641">
-        <v>59.59130657516599</v>
+        <v>59.59130657516598</v>
       </c>
     </row>
     <row r="5642" spans="1:2">
@@ -45487,7 +45487,7 @@
         <v>5643</v>
       </c>
       <c r="B5643">
-        <v>9.934756525373214</v>
+        <v>9.934756525373212</v>
       </c>
     </row>
     <row r="5644" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>351.4038981964995</v>
+        <v>351.4038981964994</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45583,7 +45583,7 @@
         <v>5655</v>
       </c>
       <c r="B5655">
-        <v>351.1430649720909</v>
+        <v>351.1430649720908</v>
       </c>
     </row>
     <row r="5656" spans="1:2">
@@ -45615,7 +45615,7 @@
         <v>5659</v>
       </c>
       <c r="B5659">
-        <v>330.2529613363102</v>
+        <v>330.2529613363101</v>
       </c>
     </row>
     <row r="5660" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>389.9691161739459</v>
+        <v>389.9691161739458</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>534.3593555016175</v>
+        <v>534.3593555016174</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>312.9500472137444</v>
+        <v>312.9500472137443</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>413.464621343426</v>
+        <v>413.4646213434259</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46407,7 +46407,7 @@
         <v>5758</v>
       </c>
       <c r="B5758">
-        <v>365.6031900196417</v>
+        <v>365.6031900196416</v>
       </c>
     </row>
     <row r="5759" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>400.8508438394417</v>
+        <v>400.8508438394416</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>396.6745815385175</v>
+        <v>396.6745815385174</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46847,7 +46847,7 @@
         <v>5813</v>
       </c>
       <c r="B5813">
-        <v>71.51519485414148</v>
+        <v>71.51519485414147</v>
       </c>
     </row>
     <row r="5814" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>549.109620877443</v>
+        <v>549.1096208774429</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -47151,7 +47151,7 @@
         <v>5851</v>
       </c>
       <c r="B5851">
-        <v>465.9184758430336</v>
+        <v>465.9184758430335</v>
       </c>
     </row>
     <row r="5852" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>556.017305258691</v>
+        <v>556.0173052586908</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47479,7 +47479,7 @@
         <v>5892</v>
       </c>
       <c r="B5892">
-        <v>290.7677933685058</v>
+        <v>290.7677933685057</v>
       </c>
     </row>
     <row r="5893" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>237.557815589152</v>
+        <v>237.5578155891519</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>3.07941463163022</v>
+        <v>3.079414631630219</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47703,7 +47703,7 @@
         <v>5920</v>
       </c>
       <c r="B5920">
-        <v>299.6358299273595</v>
+        <v>299.6358299273594</v>
       </c>
     </row>
     <row r="5921" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>81.11766743588046</v>
+        <v>81.11766743588045</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>44.19276806182158</v>
+        <v>44.19276806182157</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>312.8679873229192</v>
+        <v>312.8679873229191</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -47935,7 +47935,7 @@
         <v>5949</v>
       </c>
       <c r="B5949">
-        <v>190.9580550868048</v>
+        <v>190.9580550868047</v>
       </c>
     </row>
     <row r="5950" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>177.7763059098948</v>
+        <v>177.7763059098947</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48159,7 +48159,7 @@
         <v>5977</v>
       </c>
       <c r="B5977">
-        <v>95.40693206789167</v>
+        <v>95.40693206789166</v>
       </c>
     </row>
     <row r="5978" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>32.33364848239025</v>
+        <v>32.33364848239024</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>152.2665234916953</v>
+        <v>152.2665234916952</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>273.9736505690561</v>
+        <v>273.973650569056</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>215.4552770664293</v>
+        <v>215.4552770664292</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>271.8362834840989</v>
+        <v>271.8362834840988</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>350.2052376483746</v>
+        <v>350.2052376483745</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48879,7 +48879,7 @@
         <v>6067</v>
       </c>
       <c r="B6067">
-        <v>326.6950789269615</v>
+        <v>326.6950789269614</v>
       </c>
     </row>
     <row r="6068" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>45.35743236946177</v>
+        <v>45.35743236946176</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49463,7 +49463,7 @@
         <v>6140</v>
       </c>
       <c r="B6140">
-        <v>253.9261261694268</v>
+        <v>253.9261261694267</v>
       </c>
     </row>
     <row r="6141" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>385.4528914681746</v>
+        <v>385.4528914681745</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49663,7 +49663,7 @@
         <v>6165</v>
       </c>
       <c r="B6165">
-        <v>260.8349828348293</v>
+        <v>260.8349828348292</v>
       </c>
     </row>
     <row r="6166" spans="1:2">
@@ -49727,7 +49727,7 @@
         <v>6173</v>
       </c>
       <c r="B6173">
-        <v>83.99884881696015</v>
+        <v>83.99884881696013</v>
       </c>
     </row>
     <row r="6174" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>59.0840006072432</v>
+        <v>59.08400060724319</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>236.8995780363186</v>
+        <v>236.8995780363185</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -50023,7 +50023,7 @@
         <v>6210</v>
       </c>
       <c r="B6210">
-        <v>333.0810968593922</v>
+        <v>333.0810968593921</v>
       </c>
     </row>
     <row r="6211" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>85.97326840442163</v>
+        <v>85.97326840442162</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>61.57569057794196</v>
+        <v>61.57569057794195</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>369.4365592053321</v>
+        <v>369.436559205332</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>309.8757320181869</v>
+        <v>309.8757320181868</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>197.0735684505511</v>
+        <v>197.073568450551</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50279,7 +50279,7 @@
         <v>6242</v>
       </c>
       <c r="B6242">
-        <v>176.5366154163573</v>
+        <v>176.5366154163572</v>
       </c>
     </row>
     <row r="6243" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>180.1091513776391</v>
+        <v>180.109151377639</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>300.9077582351497</v>
+        <v>300.9077582351496</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>8.76294128438969</v>
+        <v>8.762941284389688</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>468.0168644798488</v>
+        <v>468.0168644798487</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>443.7476517683028</v>
+        <v>443.7476517683027</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>385.7576853483824</v>
+        <v>385.7576853483823</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>398.1194217591179</v>
+        <v>398.1194217591178</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>29.4044034509701</v>
+        <v>29.40440345097009</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>176.4325751976325</v>
+        <v>176.4325751976324</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>268.1605865172083</v>
+        <v>268.1605865172082</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>83.68028059793527</v>
+        <v>83.68028059793525</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>300.6850242457671</v>
+        <v>300.685024245767</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>178.4533000092025</v>
+        <v>178.4533000092024</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>6.536128918433056</v>
+        <v>6.536128918433055</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>149.5603055206964</v>
+        <v>149.5603055206963</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>95.44796201330426</v>
+        <v>95.44796201330423</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>4.240122480248478</v>
+        <v>4.240122480248477</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>22.23260344968059</v>
+        <v>22.23260344968058</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>16.32631350043463</v>
+        <v>16.32631350043462</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>5.690325900856413</v>
+        <v>5.690325900856412</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>5.643903448332456</v>
+        <v>5.643903448332455</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>3.25508141220383</v>
+        <v>3.255081412203829</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>6.505209923854284</v>
+        <v>6.505209923854283</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>328.6088328094201</v>
+        <v>328.60883280942</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>333.3712371876669</v>
+        <v>333.3712371876668</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52175,7 +52175,7 @@
         <v>6479</v>
       </c>
       <c r="B6479">
-        <v>89.11733450718054</v>
+        <v>89.11733450718053</v>
       </c>
     </row>
     <row r="6480" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>136.0506098515244</v>
+        <v>136.0506098515243</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>243.0142121869489</v>
+        <v>243.0142121869488</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>320.5786863500992</v>
+        <v>320.5786863500991</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>289.9477806023314</v>
+        <v>289.9477806023313</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>253.397132944643</v>
+        <v>253.3971329446429</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>84.98767050140353</v>
+        <v>84.98767050140351</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>82.12905559030077</v>
+        <v>82.12905559030075</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>62.1515751689115</v>
+        <v>62.15157516891149</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>230.2623982237551</v>
+        <v>230.262398223755</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>52.65109130862667</v>
+        <v>52.65109130862666</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>2.776382108364776</v>
+        <v>2.776382108364775</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>87.75631260363726</v>
+        <v>87.75631260363724</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>5.101282420250975</v>
+        <v>5.101282420250974</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52991,7 +52991,7 @@
         <v>6581</v>
       </c>
       <c r="B6581">
-        <v>3.895939852444594</v>
+        <v>3.895939852444593</v>
       </c>
     </row>
     <row r="6582" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>8.22539038527705</v>
+        <v>8.225390385277048</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>385.4675450201077</v>
+        <v>385.4675450201076</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53151,7 +53151,7 @@
         <v>6601</v>
       </c>
       <c r="B6601">
-        <v>90.27848196235681</v>
+        <v>90.27848196235678</v>
       </c>
     </row>
     <row r="6602" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>35.4826967928064</v>
+        <v>35.48269679280639</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>392.5598641557122</v>
+        <v>392.5598641557121</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>413.464621343426</v>
+        <v>413.4646213434259</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>5.749907243016264</v>
+        <v>5.749907243016263</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>361.9427327467615</v>
+        <v>361.9427327467614</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>145.1267268478276</v>
+        <v>145.1267268478275</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>74.24134165576932</v>
+        <v>74.2413416557693</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>37.85452070869267</v>
+        <v>37.85452070869266</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54223,7 +54223,7 @@
         <v>6735</v>
       </c>
       <c r="B6735">
-        <v>202.1410597800444</v>
+        <v>202.1410597800443</v>
       </c>
     </row>
     <row r="6736" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>62.54604878694967</v>
+        <v>62.54604878694966</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>263.9101772435028</v>
+        <v>263.9101772435027</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>342.2571510798789</v>
+        <v>342.2571510798788</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>73.46441033227809</v>
+        <v>73.46441033227808</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>6.360374216547847</v>
+        <v>6.360374216547846</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>330.5137945607188</v>
+        <v>330.5137945607187</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55071,7 +55071,7 @@
         <v>6841</v>
       </c>
       <c r="B6841">
-        <v>62.04665573707074</v>
+        <v>62.04665573707073</v>
       </c>
     </row>
     <row r="6842" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>393.8991988023946</v>
+        <v>393.8991988023945</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>424.3610025608548</v>
+        <v>424.3610025608547</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>351.2544319667822</v>
+        <v>351.2544319667821</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>318.3308314835667</v>
+        <v>318.3308314835666</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>97.37666251873458</v>
+        <v>97.37666251873456</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>62.10585608688033</v>
+        <v>62.10585608688032</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>0.5857728078139773</v>
+        <v>0.5857728078139772</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>2.06585189010305</v>
+        <v>2.065851890103049</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>283.0351140134262</v>
+        <v>283.0351140134261</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>45.55320382328755</v>
+        <v>45.55320382328754</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>182.2948751839754</v>
+        <v>182.2948751839753</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>47.52000356374384</v>
+        <v>47.52000356374383</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>71.21977924717085</v>
+        <v>71.21977924717083</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>2.951606351670007</v>
+        <v>2.951606351670006</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56319,7 +56319,7 @@
         <v>6997</v>
       </c>
       <c r="B6997">
-        <v>221.1862812274519</v>
+        <v>221.1862812274518</v>
       </c>
     </row>
     <row r="6998" spans="1:2">
@@ -56359,7 +56359,7 @@
         <v>7002</v>
       </c>
       <c r="B7002">
-        <v>100.5611724248288</v>
+        <v>100.5611724248287</v>
       </c>
     </row>
     <row r="7003" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>337.9255611284642</v>
+        <v>337.9255611284641</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>391.3612036075873</v>
+        <v>391.3612036075872</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>210.3836827423947</v>
+        <v>210.3836827423946</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>63.85812782703651</v>
+        <v>63.8581278270365</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>266.9326188652173</v>
+        <v>266.9326188652172</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>262.2165197110789</v>
+        <v>262.2165197110788</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>318.7469923584658</v>
+        <v>318.7469923584657</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>7.662459534216338</v>
+        <v>7.662459534216337</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>55.85377161911785</v>
+        <v>55.85377161911784</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>62.81157114797685</v>
+        <v>62.81157114797684</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>10.4056337631904</v>
+        <v>10.40563376319039</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>263.2015314720197</v>
+        <v>263.2015314720196</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>134.5366048657999</v>
+        <v>134.5366048657998</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>190.6005084196379</v>
+        <v>190.6005084196378</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>93.29007995564078</v>
+        <v>93.29007995564076</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>120.6755170212729</v>
+        <v>120.6755170212728</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>67.61207476124969</v>
+        <v>67.61207476124967</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>70.12164206530679</v>
+        <v>70.12164206530677</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>14.56970430890626</v>
+        <v>14.56970430890625</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>92.57674504753906</v>
+        <v>92.57674504753903</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>163.2215189168564</v>
+        <v>163.2215189168563</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>238.2201561365266</v>
+        <v>238.2201561365265</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>16.40494446010747</v>
+        <v>16.40494446010746</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>46.66423613085271</v>
+        <v>46.6642361308527</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>49.14566861519832</v>
+        <v>49.14566861519831</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>24.27686186565507</v>
+        <v>24.27686186565506</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>63.99118207858877</v>
+        <v>63.99118207858876</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>46.48311822896</v>
+        <v>46.48311822895999</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>60.14140091473333</v>
+        <v>60.14140091473332</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>7.453294733923736</v>
+        <v>7.453294733923735</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>67.44180048778745</v>
+        <v>67.44180048778743</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>52.45766442311018</v>
+        <v>52.45766442311017</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>56.75056899742157</v>
+        <v>56.75056899742156</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>51.96325358088849</v>
+        <v>51.96325358088848</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>56.95161572994325</v>
+        <v>56.95161572994324</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>0.4112284893184399</v>
+        <v>0.4112284893184398</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>35.04191795065974</v>
+        <v>35.04191795065973</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>1.930549783684267</v>
+        <v>1.930549783684266</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>7.18076797507255</v>
+        <v>7.180767975072549</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>23.50837098807729</v>
+        <v>23.50837098807728</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>33.29667991543143</v>
+        <v>33.29667991543142</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>59.98050491450825</v>
+        <v>59.98050491450824</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>52.38117288201957</v>
+        <v>52.38117288201956</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>59.10422250891083</v>
+        <v>59.10422250891082</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>69.11816682893034</v>
+        <v>69.11816682893033</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>5.81165731086221</v>
+        <v>5.811657310862209</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>3.55911330771111</v>
+        <v>3.559113307711109</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>85.6520625460488</v>
+        <v>85.65206254604878</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>99.82527104675012</v>
+        <v>99.8252710467501</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>84.61810792165157</v>
+        <v>84.61810792165156</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>22.4317159133471</v>
+        <v>22.43171591334709</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>61.14253158280049</v>
+        <v>61.14253158280048</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>0.8275622761303605</v>
+        <v>0.8275622761303604</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>8.548852890647577</v>
+        <v>8.548852890647575</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>149.5318776299463</v>
+        <v>149.5318776299462</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>210.6896489067572</v>
+        <v>210.6896489067571</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>63.24707471142761</v>
+        <v>63.2470747114276</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>47.6120278698835</v>
+        <v>47.61202786988349</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>128.5734884421575</v>
+        <v>128.5734884421574</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>255.7226516364208</v>
+        <v>255.7226516364207</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65231,7 +65231,7 @@
         <v>8111</v>
       </c>
       <c r="B8111">
-        <v>84.29690206327874</v>
+        <v>84.29690206327872</v>
       </c>
     </row>
     <row r="8112" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>18.23294575665374</v>
+        <v>18.23294575665373</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>251.767657969686</v>
+        <v>251.7676579696859</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>285.1261758742749</v>
+        <v>285.1261758742748</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>64.82291768630967</v>
+        <v>64.82291768630965</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>7.617355901366355</v>
+        <v>7.617355901366356</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>309.0580638203217</v>
+        <v>309.0580638203216</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>189.5545378826556</v>
+        <v>189.5545378826555</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65655,7 +65655,7 @@
         <v>8164</v>
       </c>
       <c r="B8164">
-        <v>84.72009664310572</v>
+        <v>84.72009664310571</v>
       </c>
     </row>
     <row r="8165" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>55.33122595718467</v>
+        <v>55.33122595718466</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>40.68500080008394</v>
+        <v>40.68500080008393</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>0.4164861837520244</v>
+        <v>0.4164861837520243</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>0.6763376201811063</v>
+        <v>0.6763376201811062</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>0.4573285636998695</v>
+        <v>0.4573285636998694</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>0.8519926779131701</v>
+        <v>0.85199267791317</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>115.6563824131587</v>
+        <v>115.6563824131586</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>0.3523651712033087</v>
+        <v>0.3523651712033086</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>3.091489158423068</v>
+        <v>3.091489158423067</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>71.57410213291242</v>
+        <v>71.5741021329124</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>2.799599196047527</v>
+        <v>2.799599196047526</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>90.99181687045851</v>
+        <v>90.99181687045848</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>47.79285270073755</v>
+        <v>47.79285270073754</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>88.70146670332009</v>
+        <v>88.70146670332008</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>4.851585895311509</v>
+        <v>4.851585895311508</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>45.59687140804809</v>
+        <v>45.59687140804808</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>5.328060789967124</v>
+        <v>5.328060789967123</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>54.41186210890403</v>
+        <v>54.41186210890402</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>4.209906856162493</v>
+        <v>4.209906856162492</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>7.18941357071306</v>
+        <v>7.189413570713059</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>0.0790482928318927</v>
+        <v>0.0790482928318926</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>94.86973285402544</v>
+        <v>94.8697328540254</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69199,7 +69199,7 @@
         <v>8607</v>
       </c>
       <c r="B8607">
-        <v>82.62317336148379</v>
+        <v>82.62317336148378</v>
       </c>
     </row>
     <row r="8608" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>7.421994746994704</v>
+        <v>7.421994746994703</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
